--- a/scheduling2526.xlsx
+++ b/scheduling2526.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOC\UC\PDS_Analytics\202526\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amyqian/Documents/GitHub/ISEG_ProgrammingForDataScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEA4ED2-87BE-42B4-A9EC-EA2DCEF1C2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A40C2F-5E94-B94E-A6FE-ADCBCC58D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDS-DAB_lessons-calendar" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -277,6 +277,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -290,6 +291,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -307,6 +309,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -888,21 +891,23 @@
   <dimension ref="A1:DH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112">
+    <row r="1" spans="1:112" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:112" s="21" customFormat="1">
+    <row r="2" spans="1:112" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1086,7 @@
       <c r="DG2"/>
       <c r="DH2"/>
     </row>
-    <row r="3" spans="1:112" s="21" customFormat="1">
+    <row r="3" spans="1:112" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +1224,7 @@
       <c r="DG3"/>
       <c r="DH3"/>
     </row>
-    <row r="4" spans="1:112">
+    <row r="4" spans="1:112" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1260,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:112" ht="13.5" customHeight="1">
+    <row r="5" spans="1:112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1292,7 +1297,7 @@
       <c r="N5" s="13"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:112" s="22" customFormat="1">
+    <row r="6" spans="1:112" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
@@ -1426,7 +1431,7 @@
       <c r="DG6" s="33"/>
       <c r="DH6" s="33"/>
     </row>
-    <row r="7" spans="1:112" s="22" customFormat="1">
+    <row r="7" spans="1:112" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
@@ -1557,7 +1562,7 @@
       <c r="DG7" s="33"/>
       <c r="DH7" s="33"/>
     </row>
-    <row r="8" spans="1:112">
+    <row r="8" spans="1:112" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1577,7 +1582,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:112">
+    <row r="9" spans="1:112" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +1621,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:112" s="21" customFormat="1">
+    <row r="10" spans="1:112" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
@@ -1748,7 +1753,7 @@
       <c r="DG10"/>
       <c r="DH10"/>
     </row>
-    <row r="11" spans="1:112" s="21" customFormat="1">
+    <row r="11" spans="1:112" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>21</v>
       </c>
@@ -1882,7 +1887,7 @@
       <c r="DG11"/>
       <c r="DH11"/>
     </row>
-    <row r="12" spans="1:112">
+    <row r="12" spans="1:112" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1918,7 +1923,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:112">
+    <row r="13" spans="1:112" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1954,7 +1959,7 @@
       <c r="N13" s="42"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:112" s="21" customFormat="1">
+    <row r="14" spans="1:112" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
@@ -2086,7 +2091,7 @@
       <c r="DG14"/>
       <c r="DH14"/>
     </row>
-    <row r="15" spans="1:112" s="21" customFormat="1">
+    <row r="15" spans="1:112" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
@@ -2219,7 +2224,7 @@
       <c r="DG15"/>
       <c r="DH15"/>
     </row>
-    <row r="16" spans="1:112">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2260,7 +2265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:112">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2293,7 +2298,7 @@
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
     </row>
-    <row r="18" spans="1:112" s="21" customFormat="1">
+    <row r="18" spans="1:112" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>28</v>
       </c>
@@ -2424,7 +2429,7 @@
       <c r="DG18"/>
       <c r="DH18"/>
     </row>
-    <row r="19" spans="1:112" s="21" customFormat="1">
+    <row r="19" spans="1:112" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>29</v>
       </c>
@@ -2559,7 +2564,7 @@
       <c r="DG19"/>
       <c r="DH19"/>
     </row>
-    <row r="20" spans="1:112" s="21" customFormat="1">
+    <row r="20" spans="1:112" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -2675,7 +2680,7 @@
       <c r="DG20"/>
       <c r="DH20"/>
     </row>
-    <row r="21" spans="1:112" s="21" customFormat="1">
+    <row r="21" spans="1:112" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -2791,7 +2796,7 @@
       <c r="DG21"/>
       <c r="DH21"/>
     </row>
-    <row r="22" spans="1:112">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2829,7 +2834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:112">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2864,7 +2869,7 @@
       </c>
       <c r="N23" s="13"/>
     </row>
-    <row r="24" spans="1:112" s="21" customFormat="1">
+    <row r="24" spans="1:112" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>32</v>
       </c>
@@ -2998,7 +3003,7 @@
       <c r="DG24"/>
       <c r="DH24"/>
     </row>
-    <row r="25" spans="1:112" s="21" customFormat="1">
+    <row r="25" spans="1:112" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>33</v>
       </c>
@@ -3130,7 +3135,7 @@
       <c r="DG25"/>
       <c r="DH25"/>
     </row>
-    <row r="26" spans="1:112">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3169,7 +3174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:112">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3203,7 +3208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:112" s="21" customFormat="1">
+    <row r="28" spans="1:112" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>36</v>
       </c>
@@ -3348,42 +3353,42 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
